--- a/data/trans_dic/P1435_2011_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1435_2011_2023-Dificultad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.001008980514530701</v>
+        <v>0.001011523580448716</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.007118492696026817</v>
+        <v>0.007238419601653691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.02713106056323865</v>
+        <v>0.02682328382489395</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06916855695279123</v>
+        <v>0.06844598361197522</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.01501631265946488</v>
+        <v>0.01543383870397908</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04362820263338164</v>
+        <v>0.04430001890585409</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.009463356610008772</v>
+        <v>0.009043596403711269</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.04193172516905274</v>
+        <v>0.04407635902898566</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04982392542806787</v>
+        <v>0.04935072268333893</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1076440771527069</v>
+        <v>0.1082255941723019</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0279457530132859</v>
+        <v>0.02819559560094712</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07010621958663238</v>
+        <v>0.07023306857344848</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.01854655061116565</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.05030773193649872</v>
+        <v>0.05030773193649873</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.001066537702394193</v>
+        <v>0.001058021521433775</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.006867130628518963</v>
+        <v>0.007134685389265342</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02224173423523267</v>
+        <v>0.02185026157193295</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06957978058699922</v>
+        <v>0.06962838005842004</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01314577999021935</v>
+        <v>0.01308293567913422</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04290294443895901</v>
+        <v>0.04294305421119369</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01054859856558323</v>
+        <v>0.01068607340070176</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02081548962226954</v>
+        <v>0.02159081280718797</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04525156985087645</v>
+        <v>0.04375117351108296</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09852921687820786</v>
+        <v>0.09832939973958696</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0267721169678717</v>
+        <v>0.02569194268006023</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05952998838679965</v>
+        <v>0.05937566638739497</v>
       </c>
     </row>
     <row r="10">
@@ -782,13 +782,13 @@
         <v>0.04069798142443769</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09455598452181772</v>
+        <v>0.09455598452181771</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02135895757880808</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.0575161874317241</v>
+        <v>0.05751618743172411</v>
       </c>
     </row>
     <row r="11">
@@ -802,19 +802,19 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01349485738691263</v>
+        <v>0.01297078343120753</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02801666902839291</v>
+        <v>0.02827848579830099</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08039440323698269</v>
+        <v>0.07975961972659196</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01501363435003218</v>
+        <v>0.01541327475869952</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.04896499109477979</v>
+        <v>0.04884358689379275</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.007806633486549686</v>
+        <v>0.008793225440024147</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03090517797758071</v>
+        <v>0.03022419200649717</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05411510766696847</v>
+        <v>0.05593137237139138</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1117988925828124</v>
+        <v>0.1102941645212155</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02923220025532973</v>
+        <v>0.03013485638082324</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06686325678777827</v>
+        <v>0.06657860108932065</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.03434626814219798</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09218994382758666</v>
+        <v>0.09218994382758665</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.0172542853518294</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.0531365208897286</v>
+        <v>0.05313652088972859</v>
       </c>
     </row>
     <row r="14">
@@ -884,19 +884,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01011988346264544</v>
+        <v>0.009382005514215698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01842756503410846</v>
+        <v>0.01988150744122896</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07602648596832026</v>
+        <v>0.07699202048927781</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.009635812753374188</v>
+        <v>0.01038649024267971</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04454713747107442</v>
+        <v>0.04439908408891596</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.009447718433814685</v>
+        <v>0.009384558187747308</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02718924077726305</v>
+        <v>0.0266030641677488</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05555025109613927</v>
+        <v>0.05847385926921742</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1099420582266501</v>
+        <v>0.1095002817888221</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.02718004972196738</v>
+        <v>0.02700769324256897</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06356701716624145</v>
+        <v>0.06375454184602833</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>0.03577833409738875</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.0889006130480904</v>
+        <v>0.08890061304809038</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0198172671772201</v>
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.001733030580936886</v>
+        <v>0.001733491074721525</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01311947100846252</v>
+        <v>0.01281590972818606</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0298954639086777</v>
+        <v>0.02991890428280539</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.08147246524398061</v>
+        <v>0.08168411688745486</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01666298222124377</v>
+        <v>0.01654955667772849</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04933133236848267</v>
+        <v>0.04936414798494582</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.00556190924205387</v>
+        <v>0.005573830932625388</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02247403112651074</v>
+        <v>0.02239893859554812</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04279607131673649</v>
+        <v>0.04327823981292828</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09739808755095558</v>
+        <v>0.09819731009683287</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0237875937039804</v>
+        <v>0.02339970750525684</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05905736800287594</v>
+        <v>0.05871317408376473</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3536</v>
+        <v>3596</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>30385</v>
+        <v>30040</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43033</v>
+        <v>42584</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>32493</v>
+        <v>33397</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>48817</v>
+        <v>49568</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9879</v>
+        <v>9441</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>20831</v>
+        <v>21896</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>55799</v>
+        <v>55269</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>66971</v>
+        <v>67333</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>60471</v>
+        <v>61011</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>78444</v>
+        <v>78586</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>6593</v>
+        <v>6850</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>24338</v>
+        <v>23910</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>77544</v>
+        <v>77598</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>27229</v>
+        <v>27099</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>89006</v>
+        <v>89089</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10307</v>
+        <v>10441</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>19986</v>
+        <v>20730</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>49517</v>
+        <v>47875</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>109807</v>
+        <v>109584</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>55454</v>
+        <v>53217</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>123501</v>
+        <v>123181</v>
       </c>
     </row>
     <row r="12">
@@ -1410,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14122</v>
+        <v>13574</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>24537</v>
+        <v>24766</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>84077</v>
+        <v>83413</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>26438</v>
+        <v>27141</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>102449</v>
+        <v>102195</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6910</v>
+        <v>7783</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32342</v>
+        <v>31629</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>47394</v>
+        <v>48984</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>116919</v>
+        <v>115346</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>51475</v>
+        <v>53065</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>139897</v>
+        <v>139301</v>
       </c>
     </row>
     <row r="16">
@@ -1518,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>9876</v>
+        <v>9156</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8343</v>
+        <v>9001</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>69051</v>
+        <v>69928</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>9210</v>
+        <v>9927</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>83935</v>
+        <v>83656</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4752</v>
+        <v>4721</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>26535</v>
+        <v>25963</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25150</v>
+        <v>26473</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>99855</v>
+        <v>99454</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>25978</v>
+        <v>25813</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>119772</v>
+        <v>120125</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>5908</v>
+        <v>5910</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>45647</v>
+        <v>44591</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>105911</v>
+        <v>105994</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>300688</v>
+        <v>301469</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>115839</v>
+        <v>115050</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>353705</v>
+        <v>353940</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>18961</v>
+        <v>19002</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>78194</v>
+        <v>77933</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>151615</v>
+        <v>153323</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>359464</v>
+        <v>362413</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>165368</v>
+        <v>162672</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>423440</v>
+        <v>420973</v>
       </c>
     </row>
     <row r="24">
